--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sblanche/Desktop/GitHub/website/docs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{810E7345-0778-4290-ACC1-55273622CBFB}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="980" windowWidth="14480" windowHeight="16900" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,17 +505,17 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -549,7 +549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -566,7 +566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -576,10 +576,10 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -592,7 +592,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{810E7345-0778-4290-ACC1-55273622CBFB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC857C40-A7A9-4C23-8EFF-7C40F0C53CD2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Topic</t>
   </si>
@@ -117,13 +117,19 @@
   </si>
   <si>
     <t>SCORE #2</t>
+  </si>
+  <si>
+    <t>SCORE #3</t>
+  </si>
+  <si>
+    <t>https://usckrc.github.io/website/SCORE_3.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +147,14 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,15 +175,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,7 +522,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,8 +593,12 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -619,6 +640,9 @@
       <c r="E7" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{B2EB67CF-4172-42D1-BF46-3A3FF222E931}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC857C40-A7A9-4C23-8EFF-7C40F0C53CD2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55AD431-49E3-4DCD-B8DE-F7CDAF57B660}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Topic</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>https://usckrc.github.io/website/SCORE_3.html</t>
+  </si>
+  <si>
+    <t>SCORE #4</t>
+  </si>
+  <si>
+    <t>https://usckrc.github.io/website/SCORE_4.html</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,6 +536,7 @@
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,8 +617,12 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -642,6 +653,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{B2EB67CF-4172-42D1-BF46-3A3FF222E931}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{DFC8C428-49B8-43FF-9C8F-FF213357069A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55AD431-49E3-4DCD-B8DE-F7CDAF57B660}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49257BA-3EFE-49D4-AEB2-F6A00B2F0A5B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>April 28th</t>
   </si>
   <si>
-    <t>May 26th</t>
-  </si>
-  <si>
     <t>June 30th</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Xiao-Tong Su</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>url1</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>https://usckrc.github.io/website/SCORE_4.html</t>
+  </si>
+  <si>
+    <t>June 2nd</t>
+  </si>
+  <si>
+    <t>Lu Zhang</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,16 +561,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,16 +578,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,40 +612,40 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49257BA-3EFE-49D4-AEB2-F6A00B2F0A5B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3112A279-6F20-4F6B-9765-366BEAFBC016}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -125,10 +125,10 @@
     <t>https://usckrc.github.io/website/SCORE_4.html</t>
   </si>
   <si>
-    <t>June 2nd</t>
-  </si>
-  <si>
     <t>Lu Zhang</t>
+  </si>
+  <si>
+    <t>July 28th</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3112A279-6F20-4F6B-9765-366BEAFBC016}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9AA170D-808B-44AF-9C88-3E8BCA4E1E40}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Topic</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>July 28th</t>
+  </si>
+  <si>
+    <t>SCORE #5</t>
+  </si>
+  <si>
+    <t>https://usckrc.github.io/website/SCORE_5.html</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,8 +640,12 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -654,6 +664,7 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{B2EB67CF-4172-42D1-BF46-3A3FF222E931}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{DFC8C428-49B8-43FF-9C8F-FF213357069A}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{A6C480D4-5F6B-47DE-AB93-9E06CB8E3137}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9AA170D-808B-44AF-9C88-3E8BCA4E1E40}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE6397F2-D422-4535-924A-ABA7A3D48CB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -128,13 +128,13 @@
     <t>Lu Zhang</t>
   </si>
   <si>
-    <t>July 28th</t>
-  </si>
-  <si>
     <t>SCORE #5</t>
   </si>
   <si>
     <t>https://usckrc.github.io/website/SCORE_5.html</t>
+  </si>
+  <si>
+    <t>August 25th</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,15 +641,15 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE6397F2-D422-4535-924A-ABA7A3D48CB6}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7E6759-8005-48C4-A1DB-D4A130DEC8CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Topic</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>August 25th</t>
+  </si>
+  <si>
+    <t>https://usckrc.github.io/website/SCORE_6__LZ_ST_ppt.pdf</t>
+  </si>
+  <si>
+    <t>Getting Started with Xenium</t>
+  </si>
+  <si>
+    <t>September 29th</t>
+  </si>
+  <si>
+    <t>SCORE #6</t>
   </si>
 </sst>
 </file>
@@ -531,21 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB11DA9E-E571-6D41-AABB-E67CBE5C5423}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -562,7 +574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -579,7 +591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -596,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -613,7 +625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -630,7 +642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -647,7 +659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -657,14 +669,30 @@
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{B2EB67CF-4172-42D1-BF46-3A3FF222E931}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{DFC8C428-49B8-43FF-9C8F-FF213357069A}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{A6C480D4-5F6B-47DE-AB93-9E06CB8E3137}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{D32B6CA4-7217-4A0E-831F-EDF6154BF030}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive - University of Southern California\Github\website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{1D7E9643-459F-0D41-81D3-1C879C692604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7E6759-8005-48C4-A1DB-D4A130DEC8CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Topic</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>SCORE #6</t>
+  </si>
+  <si>
+    <t>https://usckrc.github.io/website/SCORE_7.html</t>
+  </si>
+  <si>
+    <t>October 27th</t>
+  </si>
+  <si>
+    <t>Annotating a Xenium Dataset</t>
+  </si>
+  <si>
+    <t>SCORE #7</t>
   </si>
 </sst>
 </file>
@@ -543,21 +555,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB11DA9E-E571-6D41-AABB-E67CBE5C5423}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -574,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -591,7 +603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -625,7 +637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -642,7 +654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -659,7 +671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -676,7 +688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -684,6 +696,23 @@
         <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -693,6 +722,7 @@
     <hyperlink ref="E5" r:id="rId2" xr:uid="{DFC8C428-49B8-43FF-9C8F-FF213357069A}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{A6C480D4-5F6B-47DE-AB93-9E06CB8E3137}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{D32B6CA4-7217-4A0E-831F-EDF6154BF030}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{D76BBE40-2AAB-4868-8789-EB5A239F4DCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive - University of Southern California\Github\website\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B0EBEF-9EE6-4C61-B3DE-26BDA71E4AF6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,13 +152,13 @@
     <t>https://usckrc.github.io/website/SCORE_7.html</t>
   </si>
   <si>
-    <t>October 27th</t>
-  </si>
-  <si>
     <t>Annotating a Xenium Dataset</t>
   </si>
   <si>
     <t>SCORE #7</t>
+  </si>
+  <si>
+    <t>November 24th</t>
   </si>
 </sst>
 </file>
@@ -177,12 +177,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,7 +560,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>37</v>
@@ -707,10 +709,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B0EBEF-9EE6-4C61-B3DE-26BDA71E4AF6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D87418F-17E4-4188-8DAD-8494EBDB742B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Topic</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>November 24th</t>
+  </si>
+  <si>
+    <t>https://usckrc.github.io/website/SCORE_8.html</t>
+  </si>
+  <si>
+    <t>SCORE #8</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>January 26th</t>
   </si>
 </sst>
 </file>
@@ -557,15 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB11DA9E-E571-6D41-AABB-E67CBE5C5423}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.375" bestFit="1" customWidth="1"/>
@@ -717,6 +729,23 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -725,6 +754,7 @@
     <hyperlink ref="E6" r:id="rId3" xr:uid="{A6C480D4-5F6B-47DE-AB93-9E06CB8E3137}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{D32B6CA4-7217-4A0E-831F-EDF6154BF030}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{D76BBE40-2AAB-4868-8789-EB5A239F4DCA}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{413AEE38-1F0C-4E3B-A436-A4897DFE3C2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D87418F-17E4-4188-8DAD-8494EBDB742B}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0D51A3B-033F-4B61-8FE1-07682B34450E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -167,10 +167,10 @@
     <t>SCORE #8</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>January 26th</t>
+    <t>February 23rd</t>
+  </si>
+  <si>
+    <t>Putting the "Spatial" in Spatial Analysis</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -738,13 +738,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0D51A3B-033F-4B61-8FE1-07682B34450E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EFC000-A3B6-4AB9-8F84-C5F8D6153576}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Topic</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Putting the "Spatial" in Spatial Analysis</t>
+  </si>
+  <si>
+    <t>https://usckrc.github.io/website/SCORE_9.html</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -746,6 +749,12 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -755,6 +764,7 @@
     <hyperlink ref="E7" r:id="rId4" xr:uid="{D32B6CA4-7217-4A0E-831F-EDF6154BF030}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{D76BBE40-2AAB-4868-8789-EB5A239F4DCA}"/>
     <hyperlink ref="E9" r:id="rId6" xr:uid="{413AEE38-1F0C-4E3B-A436-A4897DFE3C2D}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{B47E4B98-32B8-47FC-BC0F-24321C75FB0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/score_table.xlsx
+++ b/docs/data/score_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EFC000-A3B6-4AB9-8F84-C5F8D6153576}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{868EB198-DD10-40E3-B126-D630E2FD229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1116E61B-A026-43B7-97D4-243791B04926}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{415608D0-703B-3644-9AA1-9DDDDB42A465}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Topic</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>https://usckrc.github.io/website/SCORE_9.html</t>
+  </si>
+  <si>
+    <t>SCORE #9</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -750,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>45</v>
